--- a/documents/TEST.xlsx
+++ b/documents/TEST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yurii\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yurii\projects\spreadsheet\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D45C02-C2F0-4596-A5C0-D410838C089B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A574F8-5652-494A-822D-54EA1B62367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +81,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,15 +144,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,228 +472,228 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>1992</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1993</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1994</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1995</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1996</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1997</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>2001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>2002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>2003</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>2004</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>2005</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>2006</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>2007</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>2008</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>2009</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>2010</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>2011</v>
       </c>
     </row>

--- a/documents/TEST.xlsx
+++ b/documents/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yurii\projects\spreadsheet\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A574F8-5652-494A-822D-54EA1B62367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACFDC30-A2C3-4CA2-A2FF-D46DEEBD0108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>January</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>December</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>more tests</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,19 +180,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -469,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J11"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +671,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -664,7 +682,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -675,7 +693,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -686,7 +704,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -695,6 +713,51 @@
       </c>
       <c r="C20" s="3">
         <v>2011</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/documents/TEST.xlsx
+++ b/documents/TEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yurii\projects\spreadsheet\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\spreadsheet\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACFDC30-A2C3-4CA2-A2FF-D46DEEBD0108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18870B06-185F-406E-8DF0-EECA2535EED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H5000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A4979" workbookViewId="0">
+      <selection activeCell="D4990" sqref="D4990"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -506,7 +506,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -517,7 +517,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -539,7 +539,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -550,7 +550,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -561,7 +561,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -572,7 +572,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -583,7 +583,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -594,7 +594,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -605,7 +605,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -616,7 +616,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -627,7 +627,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -638,7 +638,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -649,7 +649,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -660,7 +660,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -671,7 +671,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -682,7 +682,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -693,7 +693,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>19</v>
       </c>
@@ -704,7 +704,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>20</v>
       </c>
@@ -724,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
@@ -735,7 +735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
         <v>12</v>
       </c>
@@ -749,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -758,6 +758,29 @@
       </c>
       <c r="C25" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5000" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5000">
+        <v>1</v>
+      </c>
+      <c r="B5000">
+        <v>2</v>
+      </c>
+      <c r="C5000">
+        <v>3</v>
+      </c>
+      <c r="E5000">
+        <v>4</v>
+      </c>
+      <c r="F5000">
+        <v>5</v>
+      </c>
+      <c r="G5000">
+        <v>6</v>
+      </c>
+      <c r="H5000">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/documents/TEST.xlsx
+++ b/documents/TEST.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5000"/>
+  <dimension ref="A1:N5000"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -412,6 +412,9 @@
       <c r="C1">
         <v>1992</v>
       </c>
+      <c r="N1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -479,15 +482,17 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" xml:space="preserve">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="str">
         <v>August</v>
       </c>
-      <c r="C8" t="str">
-        <v>1999bfgfgnfgnfgn</v>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">1999bfgfgnfgnv
+dvsdvsd
+ssvsddsdvsvsdsvdfgn</v>
       </c>
     </row>
     <row r="9">
@@ -693,7 +698,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5000"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N5000"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/documents/TEST.xlsx
+++ b/documents/TEST.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5000"/>
+  <dimension ref="A1:EA6000"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,6 +415,12 @@
       <c r="N1" t="b">
         <v>0</v>
       </c>
+      <c r="DA1" t="str">
+        <v>cbvcbcv</v>
+      </c>
+      <c r="EA1" t="str">
+        <v>vsdvs</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -424,7 +430,7 @@
         <v>February</v>
       </c>
       <c r="C2">
-        <v>1993</v>
+        <v>1993cscascascsa</v>
       </c>
     </row>
     <row r="3">
@@ -459,6 +465,9 @@
       <c r="C5">
         <v>1996</v>
       </c>
+      <c r="DA5" t="str">
+        <v>cvbcv</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -469,6 +478,9 @@
       </c>
       <c r="C6">
         <v>1997</v>
+      </c>
+      <c r="EA6" t="str">
+        <v>vsdvsd</v>
       </c>
     </row>
     <row r="7">
@@ -527,6 +539,9 @@
       <c r="C11">
         <v>2002</v>
       </c>
+      <c r="EA11" t="str">
+        <v>sdvsd</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -538,6 +553,9 @@
       <c r="C12">
         <v>2003</v>
       </c>
+      <c r="DA12" t="str">
+        <v>cvbcv</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -604,6 +622,9 @@
       <c r="C18">
         <v>2009</v>
       </c>
+      <c r="DA18" t="str">
+        <v>cvbcvb</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -615,6 +636,9 @@
       <c r="C19">
         <v>2010</v>
       </c>
+      <c r="EA19" t="str">
+        <v>sdvsdv</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -661,6 +685,16 @@
         <v>test</v>
       </c>
     </row>
+    <row r="23">
+      <c r="DA23" t="str">
+        <v>vbcvbc</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="EA24" t="str">
+        <v>vsdvs</v>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" t="str">
         <v>test</v>
@@ -670,6 +704,26 @@
       </c>
       <c r="C25" t="str">
         <v>test</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="DA28" t="str">
+        <v>bcvb</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="EA30" t="str">
+        <v>sdv</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="DA32" t="str">
+        <v>fdfbd</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="EA33" t="str">
+        <v>v</v>
       </c>
     </row>
     <row r="5000">
@@ -695,10 +749,44 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5999">
+      <c r="M5999" t="str">
+        <v>sdf</v>
+      </c>
+    </row>
+    <row r="6000">
+      <c r="A6000">
+        <v>123</v>
+      </c>
+      <c r="B6000" t="str">
+        <v>sdfs</v>
+      </c>
+      <c r="D6000" t="str">
+        <v>fsdfsd</v>
+      </c>
+      <c r="G6000" t="str">
+        <v>sdfsdf</v>
+      </c>
+      <c r="J6000" t="str">
+        <v>sdfsd</v>
+      </c>
+      <c r="O6000" t="str">
+        <v>sdfsdf</v>
+      </c>
+      <c r="R6000" t="str">
+        <v>dfsdfsd</v>
+      </c>
+      <c r="V6000" t="str">
+        <v>sdfds</v>
+      </c>
+      <c r="DA6000" t="str">
+        <v>sdfsdfsdfs</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N5000"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:EA6000"/>
   </ignoredErrors>
 </worksheet>
 </file>